--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0016-041 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0016-041 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BB4982-41BB-41CA-98A8-8A3E975D4F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BBFECD-AE63-4DFC-8796-CB27CFD50293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0267" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Pemimpin Cabang</t>
-  </si>
-  <si>
-    <t>DGS-282</t>
   </si>
   <si>
     <t>1. login dengan npp sales 2. masukan cif ke dalam filed serch profiling. dengan syarat : --	Add family tree
@@ -146,12 +143,15 @@
   <si>
     <t>Pemimpin Cabang Usulan</t>
   </si>
+  <si>
+    <t>SCD0016-041</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +172,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,29 +199,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,14 +531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -565,52 +560,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -618,22 +613,22 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <v>35758</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -643,40 +638,40 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <v>9720826341</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="5">
         <v>9669179367</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>32362</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -685,30 +680,35 @@
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>19331</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -717,30 +717,35 @@
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>35758</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -756,66 +761,73 @@
       <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="5">
         <v>9720826341</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="5">
         <v>9669179367</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:20" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5">
+        <v>23948</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="9">
-        <v>23948</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>35758</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -831,16 +843,16 @@
       <c r="L7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="5">
         <v>9720826341</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="5">
         <v>9669179367</v>
       </c>
-      <c r="P7" s="8"/>
+      <c r="P7" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
